--- a/DragPrediction/NL2VP DragX/0.75L/n/6/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75L/n/6/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>8.4108180255433887E-2</v>
+        <v>0.216253485</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E137)</f>
-        <v>4.7160909689198558</v>
+        <v>12.125706495000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E59" si="0">A3*$E$1</f>
-        <v>7.9169674085541333E-2</v>
+        <v>0.20355591900000003</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>8.1352873344632232E-2</v>
+        <v>0.20916921899999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>9.3164781761033058E-2</v>
+        <v>0.23953923000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>9.095712871001653E-2</v>
+        <v>0.23386305600000001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5.8222028295148762E-2</v>
+        <v>0.14969669400000002</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>6.0199747094231405E-2</v>
+        <v>0.15478167600000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>9.2411982312805785E-2</v>
+        <v>0.23760368100000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>5.9971920082884302E-2</v>
+        <v>0.154195902</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.11320138086921075</v>
+        <v>0.29105603100000005</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>3.882004347515703E-2</v>
+        <v>9.9811572000000015E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>4.1756360718842978E-2</v>
+        <v>0.10736124000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4.9089958173185948E-2</v>
+        <v>0.12621690899999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4.9309013183020667E-2</v>
+        <v>0.12678012900000002</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>5.8779172905173552E-2</v>
+        <v>0.151129188</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.4094360485070247E-2</v>
+        <v>0.113372553</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4.7943439606797526E-2</v>
+        <v>0.123269055</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4.839053398555785E-2</v>
+        <v>0.12441859500000001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>3.2677592349086779E-2</v>
+        <v>8.4018500999999995E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>3.7226659222785119E-2</v>
+        <v>9.5714765999999993E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4.4661812605252066E-2</v>
+        <v>0.114831549</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4.4791015856578513E-2</v>
+        <v>0.11516374800000001</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>5.4922007860264466E-2</v>
+        <v>0.141211896</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4.2845297711057856E-2</v>
+        <v>0.11016104400000001</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>4.325589108911157E-2</v>
+        <v>0.111216735</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>3.9045673402326446E-2</v>
+        <v>0.100391697</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>3.0309756343078514E-2</v>
+        <v>7.7930474999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>2.7443100552743804E-2</v>
+        <v>7.0559916000000014E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>2.2349197640975208E-2</v>
+        <v>5.7462804000000006E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-0.14795454802307853</v>
+        <v>-0.38041111500000002</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-0.15576621139224794</v>
+        <v>-0.40049595599999999</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-0.17023740025596693</v>
+        <v>-0.437703336</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-0.15914504099155785</v>
+        <v>-0.40918338300000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-0.30206740048222314</v>
+        <v>-0.77665606200000004</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-8.0051007041962816E-2</v>
+        <v>-0.20582194500000001</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-3.8611777863830583E-2</v>
+        <v>-9.927609300000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-2.2050279846421487E-2</v>
+        <v>-5.6694246000000004E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-1.9370376211190081E-2</v>
+        <v>-4.9803852000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>0.10055275092307438</v>
+        <v>0.25853469600000001</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.19960235322944628</v>
+        <v>0.51320459399999996</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>1.8293208729384298E-2</v>
+        <v>4.7034309000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>0.20213947906352481</v>
+        <v>0.51972788700000006</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0.24640665777950826</v>
+        <v>0.63354477900000006</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-0.18995710468380991</v>
+        <v>-0.48840535800000001</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-5.8143823533061988E-2</v>
+        <v>-0.14949561900000002</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-0.10781231725850828</v>
+        <v>-0.27720002100000002</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-4.498626231482232E-2</v>
+        <v>-0.11566575300000001</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-5.4624552065962811E-2</v>
+        <v>-0.14044709700000002</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-8.9780292015495863E-3</v>
+        <v>-2.3083724999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>0.12426860026336364</v>
+        <v>0.31951134600000003</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>0.10898609927093801</v>
+        <v>0.28021797300000001</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>0.19310741302584297</v>
+        <v>0.49650522600000002</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>0.41152799642714877</v>
+        <v>1.0580940300000001</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>0.29297890450185127</v>
+        <v>0.75328831200000002</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0.32295761988282645</v>
+        <v>0.83036763600000008</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>0.74261579971171499</v>
+        <v>1.9093654650000003</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>0.82306468317981818</v>
+        <v>2.1162104040000003</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>0.87887495012060335</v>
+        <v>2.259706134</v>
       </c>
     </row>
   </sheetData>
@@ -1426,5 +1426,6 @@
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>